--- a/natmiOut/OldD2/LR-pairs_lrc2p/Igf2-Igf2r.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Igf2-Igf2r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.1436069765319</v>
+        <v>13.2221155</v>
       </c>
       <c r="H2">
-        <v>13.1436069765319</v>
+        <v>26.444231</v>
       </c>
       <c r="I2">
-        <v>0.1111437902076709</v>
+        <v>0.06841318651461004</v>
       </c>
       <c r="J2">
-        <v>0.1111437902076709</v>
+        <v>0.06671361504230638</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>29.4130078619775</v>
+        <v>29.4426765</v>
       </c>
       <c r="N2">
-        <v>29.4130078619775</v>
+        <v>58.88535299999999</v>
       </c>
       <c r="O2">
-        <v>0.2243869437380553</v>
+        <v>0.2070274275189754</v>
       </c>
       <c r="P2">
-        <v>0.2243869437380553</v>
+        <v>0.1657617245498156</v>
       </c>
       <c r="Q2">
-        <v>386.5930153354751</v>
+        <v>389.2944693121357</v>
       </c>
       <c r="R2">
-        <v>386.5930153354751</v>
+        <v>1557.177877248543</v>
       </c>
       <c r="S2">
-        <v>0.02493921540016288</v>
+        <v>0.01416340601249558</v>
       </c>
       <c r="T2">
-        <v>0.02493921540016288</v>
+        <v>0.01105856388036523</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.1436069765319</v>
+        <v>13.2221155</v>
       </c>
       <c r="H3">
-        <v>13.1436069765319</v>
+        <v>26.444231</v>
       </c>
       <c r="I3">
-        <v>0.1111437902076709</v>
+        <v>0.06841318651461004</v>
       </c>
       <c r="J3">
-        <v>0.1111437902076709</v>
+        <v>0.06671361504230638</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>18.8983000304096</v>
+        <v>20.25989766666666</v>
       </c>
       <c r="N3">
-        <v>18.8983000304096</v>
+        <v>60.77969299999999</v>
       </c>
       <c r="O3">
-        <v>0.1441719869510587</v>
+        <v>0.1424583290084953</v>
       </c>
       <c r="P3">
-        <v>0.1441719869510587</v>
+        <v>0.1710942741446817</v>
       </c>
       <c r="Q3">
-        <v>248.3918281242847</v>
+        <v>267.8787069668472</v>
       </c>
       <c r="R3">
-        <v>248.3918281242847</v>
+        <v>1607.272241801083</v>
       </c>
       <c r="S3">
-        <v>0.01602382107151154</v>
+        <v>0.009746028233017869</v>
       </c>
       <c r="T3">
-        <v>0.01602382107151154</v>
+        <v>0.01141431754123113</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.1436069765319</v>
+        <v>13.2221155</v>
       </c>
       <c r="H4">
-        <v>13.1436069765319</v>
+        <v>26.444231</v>
       </c>
       <c r="I4">
-        <v>0.1111437902076709</v>
+        <v>0.06841318651461004</v>
       </c>
       <c r="J4">
-        <v>0.1111437902076709</v>
+        <v>0.06671361504230638</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.5081736214606</v>
+        <v>22.68048566666667</v>
       </c>
       <c r="N4">
-        <v>20.5081736214606</v>
+        <v>68.04145699999999</v>
       </c>
       <c r="O4">
-        <v>0.1564534447535269</v>
+        <v>0.1594787961091443</v>
       </c>
       <c r="P4">
-        <v>0.1564534447535269</v>
+        <v>0.1915360727004918</v>
       </c>
       <c r="Q4">
-        <v>269.551373886957</v>
+        <v>299.8840010807612</v>
       </c>
       <c r="R4">
-        <v>269.551373886957</v>
+        <v>1799.304006484567</v>
       </c>
       <c r="S4">
-        <v>0.01738882884095343</v>
+        <v>0.01091045262334035</v>
       </c>
       <c r="T4">
-        <v>0.01738882884095343</v>
+        <v>0.01277806382085582</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.1436069765319</v>
+        <v>13.2221155</v>
       </c>
       <c r="H5">
-        <v>13.1436069765319</v>
+        <v>26.444231</v>
       </c>
       <c r="I5">
-        <v>0.1111437902076709</v>
+        <v>0.06841318651461004</v>
       </c>
       <c r="J5">
-        <v>0.1111437902076709</v>
+        <v>0.06671361504230638</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.899567327053481</v>
+        <v>10.83820733333333</v>
       </c>
       <c r="N5">
-        <v>8.899567327053481</v>
+        <v>32.514622</v>
       </c>
       <c r="O5">
-        <v>0.06789331857793633</v>
+        <v>0.07620931416127522</v>
       </c>
       <c r="P5">
-        <v>0.06789331857793633</v>
+        <v>0.09152836047030874</v>
       </c>
       <c r="Q5">
-        <v>116.9724152079755</v>
+        <v>143.3040291742804</v>
       </c>
       <c r="R5">
-        <v>116.9724152079755</v>
+        <v>859.8241750456822</v>
       </c>
       <c r="S5">
-        <v>0.007545920756528724</v>
+        <v>0.005213722023865833</v>
       </c>
       <c r="T5">
-        <v>0.007545920756528724</v>
+        <v>0.00610618780586963</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.1436069765319</v>
+        <v>13.2221155</v>
       </c>
       <c r="H6">
-        <v>13.1436069765319</v>
+        <v>26.444231</v>
       </c>
       <c r="I6">
-        <v>0.1111437902076709</v>
+        <v>0.06841318651461004</v>
       </c>
       <c r="J6">
-        <v>0.1111437902076709</v>
+        <v>0.06671361504230638</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.778100396845</v>
+        <v>17.02974533333333</v>
       </c>
       <c r="N6">
-        <v>16.778100396845</v>
+        <v>51.089236</v>
       </c>
       <c r="O6">
-        <v>0.127997336669708</v>
+        <v>0.1197453759906399</v>
       </c>
       <c r="P6">
-        <v>0.127997336669708</v>
+        <v>0.1438157272368313</v>
       </c>
       <c r="Q6">
-        <v>220.5247574289246</v>
+        <v>225.1692597329194</v>
       </c>
       <c r="R6">
-        <v>220.5247574289246</v>
+        <v>1351.015558397516</v>
       </c>
       <c r="S6">
-        <v>0.01422610913395865</v>
+        <v>0.008192162741909752</v>
       </c>
       <c r="T6">
-        <v>0.01422610913395865</v>
+        <v>0.0095944670639073</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.1436069765319</v>
+        <v>13.2221155</v>
       </c>
       <c r="H7">
-        <v>13.1436069765319</v>
+        <v>26.444231</v>
       </c>
       <c r="I7">
-        <v>0.1111437902076709</v>
+        <v>0.06841318651461004</v>
       </c>
       <c r="J7">
-        <v>0.1111437902076709</v>
+        <v>0.06671361504230638</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>36.5844875633399</v>
+        <v>41.965296</v>
       </c>
       <c r="N7">
-        <v>36.5844875633399</v>
+        <v>83.930592</v>
       </c>
       <c r="O7">
-        <v>0.2790969693097147</v>
+        <v>0.2950807572114699</v>
       </c>
       <c r="P7">
-        <v>0.2790969693097147</v>
+        <v>0.2362638408978708</v>
       </c>
       <c r="Q7">
-        <v>480.8521259703588</v>
+        <v>554.869990703688</v>
       </c>
       <c r="R7">
-        <v>480.8521259703588</v>
+        <v>2219.479962814752</v>
       </c>
       <c r="S7">
-        <v>0.03101989500455571</v>
+        <v>0.02018741487998065</v>
       </c>
       <c r="T7">
-        <v>0.03101989500455571</v>
+        <v>0.01576201493007728</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.19396453962107</v>
+        <v>1.424706666666667</v>
       </c>
       <c r="H8">
-        <v>1.19396453962107</v>
+        <v>4.27412</v>
       </c>
       <c r="I8">
-        <v>0.01009629582990297</v>
+        <v>0.007371643585723858</v>
       </c>
       <c r="J8">
-        <v>0.01009629582990297</v>
+        <v>0.01078276756562225</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>29.4130078619775</v>
+        <v>29.4426765</v>
       </c>
       <c r="N8">
-        <v>29.4130078619775</v>
+        <v>58.88535299999999</v>
       </c>
       <c r="O8">
-        <v>0.2243869437380553</v>
+        <v>0.2070274275189754</v>
       </c>
       <c r="P8">
-        <v>0.2243869437380553</v>
+        <v>0.1657617245498156</v>
       </c>
       <c r="Q8">
-        <v>35.11808839079688</v>
+        <v>41.94717749405999</v>
       </c>
       <c r="R8">
-        <v>35.11808839079688</v>
+        <v>251.68306496436</v>
       </c>
       <c r="S8">
-        <v>0.0022654769643472</v>
+        <v>0.001526132408139166</v>
       </c>
       <c r="T8">
-        <v>0.0022654769643472</v>
+        <v>0.001787370147097362</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.19396453962107</v>
+        <v>1.424706666666667</v>
       </c>
       <c r="H9">
-        <v>1.19396453962107</v>
+        <v>4.27412</v>
       </c>
       <c r="I9">
-        <v>0.01009629582990297</v>
+        <v>0.007371643585723858</v>
       </c>
       <c r="J9">
-        <v>0.01009629582990297</v>
+        <v>0.01078276756562225</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.8983000304096</v>
+        <v>20.25989766666666</v>
       </c>
       <c r="N9">
-        <v>18.8983000304096</v>
+        <v>60.77969299999999</v>
       </c>
       <c r="O9">
-        <v>0.1441719869510587</v>
+        <v>0.1424583290084953</v>
       </c>
       <c r="P9">
-        <v>0.1441719869510587</v>
+        <v>0.1710942741446817</v>
       </c>
       <c r="Q9">
-        <v>22.56390009542885</v>
+        <v>28.86441127168444</v>
       </c>
       <c r="R9">
-        <v>22.56390009542885</v>
+        <v>259.77970144516</v>
       </c>
       <c r="S9">
-        <v>0.0014556030306428</v>
+        <v>0.001050152027268413</v>
       </c>
       <c r="T9">
-        <v>0.0014556030306428</v>
+        <v>0.001844869789910956</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.19396453962107</v>
+        <v>1.424706666666667</v>
       </c>
       <c r="H10">
-        <v>1.19396453962107</v>
+        <v>4.27412</v>
       </c>
       <c r="I10">
-        <v>0.01009629582990297</v>
+        <v>0.007371643585723858</v>
       </c>
       <c r="J10">
-        <v>0.01009629582990297</v>
+        <v>0.01078276756562225</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.5081736214606</v>
+        <v>22.68048566666667</v>
       </c>
       <c r="N10">
-        <v>20.5081736214606</v>
+        <v>68.04145699999999</v>
       </c>
       <c r="O10">
-        <v>0.1564534447535269</v>
+        <v>0.1594787961091443</v>
       </c>
       <c r="P10">
-        <v>0.1564534447535269</v>
+        <v>0.1915360727004918</v>
       </c>
       <c r="Q10">
-        <v>24.48603207641618</v>
+        <v>32.31303913253777</v>
       </c>
       <c r="R10">
-        <v>24.48603207641618</v>
+        <v>290.81735219284</v>
       </c>
       <c r="S10">
-        <v>0.001579600261838988</v>
+        <v>0.001175620844396937</v>
       </c>
       <c r="T10">
-        <v>0.001579600261838988</v>
+        <v>0.002065288952361529</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.19396453962107</v>
+        <v>1.424706666666667</v>
       </c>
       <c r="H11">
-        <v>1.19396453962107</v>
+        <v>4.27412</v>
       </c>
       <c r="I11">
-        <v>0.01009629582990297</v>
+        <v>0.007371643585723858</v>
       </c>
       <c r="J11">
-        <v>0.01009629582990297</v>
+        <v>0.01078276756562225</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.899567327053481</v>
+        <v>10.83820733333333</v>
       </c>
       <c r="N11">
-        <v>8.899567327053481</v>
+        <v>32.514622</v>
       </c>
       <c r="O11">
-        <v>0.06789331857793633</v>
+        <v>0.07620931416127522</v>
       </c>
       <c r="P11">
-        <v>0.06789331857793633</v>
+        <v>0.09152836047030874</v>
       </c>
       <c r="Q11">
-        <v>10.62576780647213</v>
+        <v>15.44126624251556</v>
       </c>
       <c r="R11">
-        <v>10.62576780647213</v>
+        <v>138.97139618264</v>
       </c>
       <c r="S11">
-        <v>0.0006854710292366926</v>
+        <v>0.0005617879019093788</v>
       </c>
       <c r="T11">
-        <v>0.0006854710292366926</v>
+        <v>0.0009869290366138271</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.19396453962107</v>
+        <v>1.424706666666667</v>
       </c>
       <c r="H12">
-        <v>1.19396453962107</v>
+        <v>4.27412</v>
       </c>
       <c r="I12">
-        <v>0.01009629582990297</v>
+        <v>0.007371643585723858</v>
       </c>
       <c r="J12">
-        <v>0.01009629582990297</v>
+        <v>0.01078276756562225</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.778100396845</v>
+        <v>17.02974533333333</v>
       </c>
       <c r="N12">
-        <v>16.778100396845</v>
+        <v>51.089236</v>
       </c>
       <c r="O12">
-        <v>0.127997336669708</v>
+        <v>0.1197453759906399</v>
       </c>
       <c r="P12">
-        <v>0.127997336669708</v>
+        <v>0.1438157272368313</v>
       </c>
       <c r="Q12">
-        <v>20.03245691603513</v>
+        <v>24.26239170803555</v>
       </c>
       <c r="R12">
-        <v>20.03245691603513</v>
+        <v>218.36152537232</v>
       </c>
       <c r="S12">
-        <v>0.00129229897645706</v>
+        <v>0.0008827202328414921</v>
       </c>
       <c r="T12">
-        <v>0.00129229897645706</v>
+        <v>0.001550731559075681</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.19396453962107</v>
+        <v>1.424706666666667</v>
       </c>
       <c r="H13">
-        <v>1.19396453962107</v>
+        <v>4.27412</v>
       </c>
       <c r="I13">
-        <v>0.01009629582990297</v>
+        <v>0.007371643585723858</v>
       </c>
       <c r="J13">
-        <v>0.01009629582990297</v>
+        <v>0.01078276756562225</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>36.5844875633399</v>
+        <v>41.965296</v>
       </c>
       <c r="N13">
-        <v>36.5844875633399</v>
+        <v>83.930592</v>
       </c>
       <c r="O13">
-        <v>0.2790969693097147</v>
+        <v>0.2950807572114699</v>
       </c>
       <c r="P13">
-        <v>0.2790969693097147</v>
+        <v>0.2362638408978708</v>
       </c>
       <c r="Q13">
-        <v>43.68058085083589</v>
+        <v>59.78823697984</v>
       </c>
       <c r="R13">
-        <v>43.68058085083589</v>
+        <v>358.72942187904</v>
       </c>
       <c r="S13">
-        <v>0.002817845567380231</v>
+        <v>0.002175230171168472</v>
       </c>
       <c r="T13">
-        <v>0.002817845567380231</v>
+        <v>0.002547578080562898</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>8.091833513206581</v>
+        <v>0.1770453333333334</v>
       </c>
       <c r="H14">
-        <v>8.091833513206581</v>
+        <v>0.5311360000000001</v>
       </c>
       <c r="I14">
-        <v>0.06842543663950452</v>
+        <v>0.0009160588115324389</v>
       </c>
       <c r="J14">
-        <v>0.06842543663950452</v>
+        <v>0.001339952091596479</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>29.4130078619775</v>
+        <v>29.4426765</v>
       </c>
       <c r="N14">
-        <v>29.4130078619775</v>
+        <v>58.88535299999999</v>
       </c>
       <c r="O14">
-        <v>0.2243869437380553</v>
+        <v>0.2070274275189754</v>
       </c>
       <c r="P14">
-        <v>0.2243869437380553</v>
+        <v>0.1657617245498156</v>
       </c>
       <c r="Q14">
-        <v>238.0051627417582</v>
+        <v>5.212688475168</v>
       </c>
       <c r="R14">
-        <v>238.0051627417582</v>
+        <v>31.276130851008</v>
       </c>
       <c r="S14">
-        <v>0.01535377460148037</v>
+        <v>0.0001896492992076508</v>
       </c>
       <c r="T14">
-        <v>0.01535377460148037</v>
+        <v>0.0002221127695171648</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>8.091833513206581</v>
+        <v>0.1770453333333334</v>
       </c>
       <c r="H15">
-        <v>8.091833513206581</v>
+        <v>0.5311360000000001</v>
       </c>
       <c r="I15">
-        <v>0.06842543663950452</v>
+        <v>0.0009160588115324389</v>
       </c>
       <c r="J15">
-        <v>0.06842543663950452</v>
+        <v>0.001339952091596479</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>18.8983000304096</v>
+        <v>20.25989766666666</v>
       </c>
       <c r="N15">
-        <v>18.8983000304096</v>
+        <v>60.77969299999999</v>
       </c>
       <c r="O15">
-        <v>0.1441719869510587</v>
+        <v>0.1424583290084953</v>
       </c>
       <c r="P15">
-        <v>0.1441719869510587</v>
+        <v>0.1710942741446817</v>
       </c>
       <c r="Q15">
-        <v>152.9218975287014</v>
+        <v>3.586920335694222</v>
       </c>
       <c r="R15">
-        <v>152.9218975287014</v>
+        <v>32.282283021248</v>
       </c>
       <c r="S15">
-        <v>0.00986503115831114</v>
+        <v>0.0001305002075644193</v>
       </c>
       <c r="T15">
-        <v>0.00986503115831114</v>
+        <v>0.0002292581305003476</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>8.091833513206581</v>
+        <v>0.1770453333333334</v>
       </c>
       <c r="H16">
-        <v>8.091833513206581</v>
+        <v>0.5311360000000001</v>
       </c>
       <c r="I16">
-        <v>0.06842543663950452</v>
+        <v>0.0009160588115324389</v>
       </c>
       <c r="J16">
-        <v>0.06842543663950452</v>
+        <v>0.001339952091596479</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>20.5081736214606</v>
+        <v>22.68048566666667</v>
       </c>
       <c r="N16">
-        <v>20.5081736214606</v>
+        <v>68.04145699999999</v>
       </c>
       <c r="O16">
-        <v>0.1564534447535269</v>
+        <v>0.1594787961091443</v>
       </c>
       <c r="P16">
-        <v>0.1564534447535269</v>
+        <v>0.1915360727004918</v>
       </c>
       <c r="Q16">
-        <v>165.948726604794</v>
+        <v>4.015474145016889</v>
       </c>
       <c r="R16">
-        <v>165.948726604794</v>
+        <v>36.139267305152</v>
       </c>
       <c r="S16">
-        <v>0.01070539527101468</v>
+        <v>0.0001460919564283669</v>
       </c>
       <c r="T16">
-        <v>0.01070539527101468</v>
+        <v>0.0002566491612311992</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>8.091833513206581</v>
+        <v>0.1770453333333334</v>
       </c>
       <c r="H17">
-        <v>8.091833513206581</v>
+        <v>0.5311360000000001</v>
       </c>
       <c r="I17">
-        <v>0.06842543663950452</v>
+        <v>0.0009160588115324389</v>
       </c>
       <c r="J17">
-        <v>0.06842543663950452</v>
+        <v>0.001339952091596479</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.899567327053481</v>
+        <v>10.83820733333333</v>
       </c>
       <c r="N17">
-        <v>8.899567327053481</v>
+        <v>32.514622</v>
       </c>
       <c r="O17">
-        <v>0.06789331857793633</v>
+        <v>0.07620931416127522</v>
       </c>
       <c r="P17">
-        <v>0.06789331857793633</v>
+        <v>0.09152836047030874</v>
       </c>
       <c r="Q17">
-        <v>72.01381715008966</v>
+        <v>1.918854030065778</v>
       </c>
       <c r="R17">
-        <v>72.01381715008966</v>
+        <v>17.269686270592</v>
       </c>
       <c r="S17">
-        <v>0.004645629968600278</v>
+        <v>6.981221375828004E-05</v>
       </c>
       <c r="T17">
-        <v>0.004645629968600278</v>
+        <v>0.0001226436180525867</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>8.091833513206581</v>
+        <v>0.1770453333333334</v>
       </c>
       <c r="H18">
-        <v>8.091833513206581</v>
+        <v>0.5311360000000001</v>
       </c>
       <c r="I18">
-        <v>0.06842543663950452</v>
+        <v>0.0009160588115324389</v>
       </c>
       <c r="J18">
-        <v>0.06842543663950452</v>
+        <v>0.001339952091596479</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>16.778100396845</v>
+        <v>17.02974533333333</v>
       </c>
       <c r="N18">
-        <v>16.778100396845</v>
+        <v>51.089236</v>
       </c>
       <c r="O18">
-        <v>0.127997336669708</v>
+        <v>0.1197453759906399</v>
       </c>
       <c r="P18">
-        <v>0.127997336669708</v>
+        <v>0.1438157272368313</v>
       </c>
       <c r="Q18">
-        <v>135.765595079135</v>
+        <v>3.015036939121778</v>
       </c>
       <c r="R18">
-        <v>135.765595079135</v>
+        <v>27.135332452096</v>
       </c>
       <c r="S18">
-        <v>0.008758273650318433</v>
+        <v>0.0001096938068164906</v>
       </c>
       <c r="T18">
-        <v>0.008758273650318433</v>
+        <v>0.0001927061845154608</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>8.091833513206581</v>
+        <v>0.1770453333333334</v>
       </c>
       <c r="H19">
-        <v>8.091833513206581</v>
+        <v>0.5311360000000001</v>
       </c>
       <c r="I19">
-        <v>0.06842543663950452</v>
+        <v>0.0009160588115324389</v>
       </c>
       <c r="J19">
-        <v>0.06842543663950452</v>
+        <v>0.001339952091596479</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>36.5844875633399</v>
+        <v>41.965296</v>
       </c>
       <c r="N19">
-        <v>36.5844875633399</v>
+        <v>83.930592</v>
       </c>
       <c r="O19">
-        <v>0.2790969693097147</v>
+        <v>0.2950807572114699</v>
       </c>
       <c r="P19">
-        <v>0.2790969693097147</v>
+        <v>0.2362638408978708</v>
       </c>
       <c r="Q19">
-        <v>296.0355825285232</v>
+        <v>7.429759818752001</v>
       </c>
       <c r="R19">
-        <v>296.0355825285232</v>
+        <v>44.57855891251201</v>
       </c>
       <c r="S19">
-        <v>0.01909733198977962</v>
+        <v>0.0002703113277572313</v>
       </c>
       <c r="T19">
-        <v>0.01909733198977962</v>
+        <v>0.0003165822277797197</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>95.82827677160491</v>
+        <v>8.245523333333333</v>
       </c>
       <c r="H20">
-        <v>95.82827677160491</v>
+        <v>24.73657</v>
       </c>
       <c r="I20">
-        <v>0.8103344773229215</v>
+        <v>0.04266356058634507</v>
       </c>
       <c r="J20">
-        <v>0.8103344773229215</v>
+        <v>0.06240552082785333</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>29.4130078619775</v>
+        <v>29.4426765</v>
       </c>
       <c r="N20">
-        <v>29.4130078619775</v>
+        <v>58.88535299999999</v>
       </c>
       <c r="O20">
-        <v>0.2243869437380553</v>
+        <v>0.2070274275189754</v>
       </c>
       <c r="P20">
-        <v>0.2243869437380553</v>
+        <v>0.1657617245498156</v>
       </c>
       <c r="Q20">
-        <v>2818.597858082971</v>
+        <v>242.770276076535</v>
       </c>
       <c r="R20">
-        <v>2818.597858082971</v>
+        <v>1456.62165645921</v>
       </c>
       <c r="S20">
-        <v>0.1818284767720648</v>
+        <v>0.008832527196990972</v>
       </c>
       <c r="T20">
-        <v>0.1818284767720648</v>
+        <v>0.0103444467538544</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>95.82827677160491</v>
+        <v>8.245523333333333</v>
       </c>
       <c r="H21">
-        <v>95.82827677160491</v>
+        <v>24.73657</v>
       </c>
       <c r="I21">
-        <v>0.8103344773229215</v>
+        <v>0.04266356058634507</v>
       </c>
       <c r="J21">
-        <v>0.8103344773229215</v>
+        <v>0.06240552082785333</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>18.8983000304096</v>
+        <v>20.25989766666666</v>
       </c>
       <c r="N21">
-        <v>18.8983000304096</v>
+        <v>60.77969299999999</v>
       </c>
       <c r="O21">
-        <v>0.1441719869510587</v>
+        <v>0.1424583290084953</v>
       </c>
       <c r="P21">
-        <v>0.1441719869510587</v>
+        <v>0.1710942741446817</v>
       </c>
       <c r="Q21">
-        <v>1810.991525826921</v>
+        <v>167.0534589414455</v>
       </c>
       <c r="R21">
-        <v>1810.991525826921</v>
+        <v>1503.48113047301</v>
       </c>
       <c r="S21">
-        <v>0.1168275316905932</v>
+        <v>0.006077779550683418</v>
       </c>
       <c r="T21">
-        <v>0.1168275316905932</v>
+        <v>0.01067722728866238</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>95.82827677160491</v>
+        <v>8.245523333333333</v>
       </c>
       <c r="H22">
-        <v>95.82827677160491</v>
+        <v>24.73657</v>
       </c>
       <c r="I22">
-        <v>0.8103344773229215</v>
+        <v>0.04266356058634507</v>
       </c>
       <c r="J22">
-        <v>0.8103344773229215</v>
+        <v>0.06240552082785333</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>20.5081736214606</v>
+        <v>22.68048566666667</v>
       </c>
       <c r="N22">
-        <v>20.5081736214606</v>
+        <v>68.04145699999999</v>
       </c>
       <c r="O22">
-        <v>0.1564534447535269</v>
+        <v>0.1594787961091443</v>
       </c>
       <c r="P22">
-        <v>0.1564534447535269</v>
+        <v>0.1915360727004918</v>
       </c>
       <c r="Q22">
-        <v>1965.262937877453</v>
+        <v>187.0124737758322</v>
       </c>
       <c r="R22">
-        <v>1965.262937877453</v>
+        <v>1683.11226398249</v>
       </c>
       <c r="S22">
-        <v>0.1267796203797198</v>
+        <v>0.006803933280039851</v>
       </c>
       <c r="T22">
-        <v>0.1267796203797198</v>
+        <v>0.01195290837419577</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>95.82827677160491</v>
+        <v>8.245523333333333</v>
       </c>
       <c r="H23">
-        <v>95.82827677160491</v>
+        <v>24.73657</v>
       </c>
       <c r="I23">
-        <v>0.8103344773229215</v>
+        <v>0.04266356058634507</v>
       </c>
       <c r="J23">
-        <v>0.8103344773229215</v>
+        <v>0.06240552082785333</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>8.899567327053481</v>
+        <v>10.83820733333333</v>
       </c>
       <c r="N23">
-        <v>8.899567327053481</v>
+        <v>32.514622</v>
       </c>
       <c r="O23">
-        <v>0.06789331857793633</v>
+        <v>0.07620931416127522</v>
       </c>
       <c r="P23">
-        <v>0.06789331857793633</v>
+        <v>0.09152836047030874</v>
       </c>
       <c r="Q23">
-        <v>852.8302009644131</v>
+        <v>89.36669145850445</v>
       </c>
       <c r="R23">
-        <v>852.8302009644131</v>
+        <v>804.3002231265401</v>
       </c>
       <c r="S23">
-        <v>0.05501629682357063</v>
+        <v>0.003251360691963371</v>
       </c>
       <c r="T23">
-        <v>0.05501629682357063</v>
+        <v>0.00571187500566912</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>95.82827677160491</v>
+        <v>8.245523333333333</v>
       </c>
       <c r="H24">
-        <v>95.82827677160491</v>
+        <v>24.73657</v>
       </c>
       <c r="I24">
-        <v>0.8103344773229215</v>
+        <v>0.04266356058634507</v>
       </c>
       <c r="J24">
-        <v>0.8103344773229215</v>
+        <v>0.06240552082785333</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>16.778100396845</v>
+        <v>17.02974533333333</v>
       </c>
       <c r="N24">
-        <v>16.778100396845</v>
+        <v>51.089236</v>
       </c>
       <c r="O24">
-        <v>0.127997336669708</v>
+        <v>0.1197453759906399</v>
       </c>
       <c r="P24">
-        <v>0.127997336669708</v>
+        <v>0.1438157272368313</v>
       </c>
       <c r="Q24">
-        <v>1607.816448530637</v>
+        <v>140.4191625067244</v>
       </c>
       <c r="R24">
-        <v>1607.816448530637</v>
+        <v>1263.77246256052</v>
       </c>
       <c r="S24">
-        <v>0.1037206549089738</v>
+        <v>0.005108764103511335</v>
       </c>
       <c r="T24">
-        <v>0.1037206549089738</v>
+        <v>0.008974895361450949</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,433 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>8.245523333333333</v>
+      </c>
+      <c r="H25">
+        <v>24.73657</v>
+      </c>
+      <c r="I25">
+        <v>0.04266356058634507</v>
+      </c>
+      <c r="J25">
+        <v>0.06240552082785333</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>41.965296</v>
+      </c>
+      <c r="N25">
+        <v>83.930592</v>
+      </c>
+      <c r="O25">
+        <v>0.2950807572114699</v>
+      </c>
+      <c r="P25">
+        <v>0.2362638408978708</v>
+      </c>
+      <c r="Q25">
+        <v>346.02582735824</v>
+      </c>
+      <c r="R25">
+        <v>2076.15496414944</v>
+      </c>
+      <c r="S25">
+        <v>0.01258919576315613</v>
+      </c>
+      <c r="T25">
+        <v>0.0147441680440207</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>170.199132</v>
+      </c>
+      <c r="H26">
+        <v>340.398264</v>
+      </c>
+      <c r="I26">
+        <v>0.8806355505017887</v>
+      </c>
+      <c r="J26">
+        <v>0.8587581444726216</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>29.4426765</v>
+      </c>
+      <c r="N26">
+        <v>58.88535299999999</v>
+      </c>
+      <c r="O26">
+        <v>0.2070274275189754</v>
+      </c>
+      <c r="P26">
+        <v>0.1657617245498156</v>
+      </c>
+      <c r="Q26">
+        <v>5011.117984056797</v>
+      </c>
+      <c r="R26">
+        <v>20044.47193622719</v>
+      </c>
+      <c r="S26">
+        <v>0.1823157126021421</v>
+      </c>
+      <c r="T26">
+        <v>0.1423492309989814</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>170.199132</v>
+      </c>
+      <c r="H27">
+        <v>340.398264</v>
+      </c>
+      <c r="I27">
+        <v>0.8806355505017887</v>
+      </c>
+      <c r="J27">
+        <v>0.8587581444726216</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>20.25989766666666</v>
+      </c>
+      <c r="N27">
+        <v>60.77969299999999</v>
+      </c>
+      <c r="O27">
+        <v>0.1424583290084953</v>
+      </c>
+      <c r="P27">
+        <v>0.1710942741446817</v>
+      </c>
+      <c r="Q27">
+        <v>3448.216997275491</v>
+      </c>
+      <c r="R27">
+        <v>20689.30198365295</v>
+      </c>
+      <c r="S27">
+        <v>0.1254538689899612</v>
+      </c>
+      <c r="T27">
+        <v>0.1469286013943769</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>170.199132</v>
+      </c>
+      <c r="H28">
+        <v>340.398264</v>
+      </c>
+      <c r="I28">
+        <v>0.8806355505017887</v>
+      </c>
+      <c r="J28">
+        <v>0.8587581444726216</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>22.68048566666667</v>
+      </c>
+      <c r="N28">
+        <v>68.04145699999999</v>
+      </c>
+      <c r="O28">
+        <v>0.1594787961091443</v>
+      </c>
+      <c r="P28">
+        <v>0.1915360727004918</v>
+      </c>
+      <c r="Q28">
+        <v>3860.198973805107</v>
+      </c>
+      <c r="R28">
+        <v>23161.19384283065</v>
+      </c>
+      <c r="S28">
+        <v>0.1404426974049388</v>
+      </c>
+      <c r="T28">
+        <v>0.1644831623918475</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>170.199132</v>
+      </c>
+      <c r="H29">
+        <v>340.398264</v>
+      </c>
+      <c r="I29">
+        <v>0.8806355505017887</v>
+      </c>
+      <c r="J29">
+        <v>0.8587581444726216</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>10.83820733333333</v>
+      </c>
+      <c r="N29">
+        <v>32.514622</v>
+      </c>
+      <c r="O29">
+        <v>0.07620931416127522</v>
+      </c>
+      <c r="P29">
+        <v>0.09152836047030874</v>
+      </c>
+      <c r="Q29">
+        <v>1844.653480569368</v>
+      </c>
+      <c r="R29">
+        <v>11067.92088341621</v>
+      </c>
+      <c r="S29">
+        <v>0.06711263132977836</v>
+      </c>
+      <c r="T29">
+        <v>0.07860072500410357</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>95.82827677160491</v>
-      </c>
-      <c r="H25">
-        <v>95.82827677160491</v>
-      </c>
-      <c r="I25">
-        <v>0.8103344773229215</v>
-      </c>
-      <c r="J25">
-        <v>0.8103344773229215</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>36.5844875633399</v>
-      </c>
-      <c r="N25">
-        <v>36.5844875633399</v>
-      </c>
-      <c r="O25">
-        <v>0.2790969693097147</v>
-      </c>
-      <c r="P25">
-        <v>0.2790969693097147</v>
-      </c>
-      <c r="Q25">
-        <v>3505.828399767073</v>
-      </c>
-      <c r="R25">
-        <v>3505.828399767073</v>
-      </c>
-      <c r="S25">
-        <v>0.2261618967479992</v>
-      </c>
-      <c r="T25">
-        <v>0.2261618967479992</v>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>170.199132</v>
+      </c>
+      <c r="H30">
+        <v>340.398264</v>
+      </c>
+      <c r="I30">
+        <v>0.8806355505017887</v>
+      </c>
+      <c r="J30">
+        <v>0.8587581444726216</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>17.02974533333333</v>
+      </c>
+      <c r="N30">
+        <v>51.089236</v>
+      </c>
+      <c r="O30">
+        <v>0.1197453759906399</v>
+      </c>
+      <c r="P30">
+        <v>0.1438157272368313</v>
+      </c>
+      <c r="Q30">
+        <v>2898.447873914384</v>
+      </c>
+      <c r="R30">
+        <v>17390.6872434863</v>
+      </c>
+      <c r="S30">
+        <v>0.1054520351055608</v>
+      </c>
+      <c r="T30">
+        <v>0.1235029270678819</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>170.199132</v>
+      </c>
+      <c r="H31">
+        <v>340.398264</v>
+      </c>
+      <c r="I31">
+        <v>0.8806355505017887</v>
+      </c>
+      <c r="J31">
+        <v>0.8587581444726216</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>41.965296</v>
+      </c>
+      <c r="N31">
+        <v>83.930592</v>
+      </c>
+      <c r="O31">
+        <v>0.2950807572114699</v>
+      </c>
+      <c r="P31">
+        <v>0.2362638408978708</v>
+      </c>
+      <c r="Q31">
+        <v>7142.456953323072</v>
+      </c>
+      <c r="R31">
+        <v>28569.82781329229</v>
+      </c>
+      <c r="S31">
+        <v>0.2598586050694074</v>
+      </c>
+      <c r="T31">
+        <v>0.2028934976154302</v>
       </c>
     </row>
   </sheetData>
